--- a/類別1資料查詢.xlsx
+++ b/類別1資料查詢.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yut\vendor_order_parser-main - 複製\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yut\究極進化版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7DFF8-710A-4C77-B843-844202705E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3477CB9D-4FD2-43F8-A45F-51D6721995F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17B7AA85-4C41-4084-A780-98899B5504BB}"/>
+    <workbookView xWindow="-28125" yWindow="2220" windowWidth="28125" windowHeight="14070" xr2:uid="{17B7AA85-4C41-4084-A780-98899B5504BB}"/>
   </bookViews>
   <sheets>
     <sheet name="類別1資料查詢" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="509">
   <si>
     <t>0000</t>
   </si>
@@ -1606,6 +1606,10 @@
   </si>
   <si>
     <t>POP UP PARADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FURYU 景品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2058,11 +2062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21964413-A101-4517-8476-9C7D34FC428F}">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4913,77 +4917,78 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="3" t="s">
-        <v>364</v>
+        <v>508</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
+      </c>
+      <c r="D200" s="3"/>
+      <c r="F200" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="3" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>371</v>
@@ -4992,12 +4997,12 @@
         <v>372</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>461</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="3" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>371</v>
@@ -5008,13 +5013,10 @@
       <c r="D206" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="F206" s="7" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>371</v>
@@ -5031,7 +5033,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>371</v>
@@ -5048,7 +5050,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>371</v>
@@ -5065,7 +5067,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="3" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>371</v>
@@ -5082,7 +5084,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>371</v>
@@ -5099,7 +5101,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>371</v>
@@ -5116,301 +5118,304 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="3" t="s">
-        <v>374</v>
+        <v>506</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>374</v>
+        <v>461</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>491</v>
+        <v>412</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="3" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>413</v>
@@ -5424,273 +5429,273 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="3" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>416</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="3" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>451</v>
@@ -5698,14 +5703,13 @@
       <c r="C254" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D254" s="3"/>
-      <c r="F254" s="7" t="s">
-        <v>483</v>
+      <c r="D254" s="3" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>451</v>
@@ -5720,51 +5724,66 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="3" t="s">
-        <v>454</v>
+        <v>489</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
+      </c>
+      <c r="D256" s="3"/>
+      <c r="F256" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B259" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C259" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D259" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
